--- a/report/TasksheetFinal.xlsx
+++ b/report/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -408,13 +408,16 @@
     <t>Change Password</t>
   </si>
   <si>
-    <t>Import Excel</t>
-  </si>
-  <si>
     <t>Notify for User</t>
   </si>
   <si>
     <t>Tran Tan Len</t>
+  </si>
+  <si>
+    <t>Import Laptop from Excel</t>
+  </si>
+  <si>
+    <t>Import Hardware from Excel</t>
   </si>
 </sst>
 </file>
@@ -667,6 +670,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,18 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,7 +1009,7 @@
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="96.75">
+    <row r="1" spans="1:9" ht="96">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>78</v>
@@ -1036,10 +1039,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="39">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1055,8 +1058,8 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1070,8 +1073,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1085,8 +1088,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1100,8 +1103,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1115,8 +1118,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1130,10 +1133,10 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="40">
+      <c r="A8" s="35">
         <v>2</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1149,8 +1152,8 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1164,8 +1167,8 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1179,8 +1182,8 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1194,8 +1197,8 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1209,10 +1212,10 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="35">
         <v>3</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
@@ -1224,8 +1227,8 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="30" t="s">
         <v>47</v>
       </c>
@@ -1239,8 +1242,8 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="30" t="s">
         <v>75</v>
       </c>
@@ -1254,8 +1257,8 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="30" t="s">
         <v>79</v>
       </c>
@@ -1269,8 +1272,8 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="30" t="s">
         <v>76</v>
       </c>
@@ -1282,8 +1285,8 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="40"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
@@ -1295,8 +1298,8 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="40"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="30" t="s">
         <v>80</v>
       </c>
@@ -1310,8 +1313,8 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="40"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="30" t="s">
         <v>81</v>
       </c>
@@ -1325,8 +1328,8 @@
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="40"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="30" t="s">
         <v>82</v>
       </c>
@@ -1340,8 +1343,8 @@
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="40"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="30" t="s">
         <v>76</v>
       </c>
@@ -1353,8 +1356,8 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
@@ -1366,8 +1369,8 @@
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="40"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="30" t="s">
         <v>59</v>
       </c>
@@ -1380,8 +1383,8 @@
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="30" t="s">
         <v>83</v>
       </c>
@@ -1395,8 +1398,8 @@
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="40"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="30" t="s">
         <v>84</v>
       </c>
@@ -1410,8 +1413,8 @@
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="40"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="30" t="s">
         <v>61</v>
       </c>
@@ -1425,8 +1428,8 @@
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="30" t="s">
         <v>76</v>
       </c>
@@ -1438,8 +1441,8 @@
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="40"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="31" t="s">
         <v>38</v>
       </c>
@@ -1453,8 +1456,8 @@
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="40"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="31" t="s">
         <v>39</v>
       </c>
@@ -1466,8 +1469,8 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="40"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="6" t="s">
         <v>85</v>
       </c>
@@ -1481,8 +1484,8 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="40"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="6" t="s">
         <v>86</v>
       </c>
@@ -1496,8 +1499,8 @@
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="40"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
@@ -1511,8 +1514,8 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="40"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="7" t="s">
         <v>41</v>
       </c>
@@ -1526,8 +1529,8 @@
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="40"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
@@ -1541,10 +1544,10 @@
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A36" s="37">
+      <c r="A36" s="36">
         <v>4</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -1558,8 +1561,8 @@
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="9" t="s">
         <v>44</v>
       </c>
@@ -1573,8 +1576,8 @@
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
@@ -1588,8 +1591,8 @@
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
@@ -1603,8 +1606,8 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="9" t="s">
         <v>45</v>
       </c>
@@ -1616,8 +1619,8 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="27" t="s">
         <v>46</v>
       </c>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="32"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="27"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="22"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="24" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1657,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="22"/>
-      <c r="B44" s="38"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="23"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="22"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="25" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="22"/>
-      <c r="B46" s="38"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="26" t="s">
         <v>50</v>
       </c>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="22"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="26" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1710,7 @@
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="22"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="26" t="s">
         <v>52</v>
       </c>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="22"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="25" t="s">
         <v>53</v>
       </c>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="22"/>
-      <c r="B50" s="38"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="26" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="22"/>
-      <c r="B51" s="38"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="25" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="22"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="26" t="s">
         <v>55</v>
       </c>
@@ -1778,7 +1781,7 @@
     </row>
     <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="22"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="29" t="s">
         <v>54</v>
       </c>
@@ -1790,10 +1793,10 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="34">
+      <c r="A54" s="38">
         <v>5</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -1811,8 +1814,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="9" t="s">
         <v>92</v>
       </c>
@@ -1828,8 +1831,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="9" t="s">
         <v>93</v>
       </c>
@@ -1845,8 +1848,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="35"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="9" t="s">
         <v>57</v>
       </c>
@@ -1862,8 +1865,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="35"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="9" t="s">
         <v>47</v>
       </c>
@@ -1879,8 +1882,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="35"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="9" t="s">
         <v>58</v>
       </c>
@@ -1896,8 +1899,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="35"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="9" t="s">
         <v>88</v>
       </c>
@@ -1913,8 +1916,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="35"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="9" t="s">
         <v>79</v>
       </c>
@@ -1930,8 +1933,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="35"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="9" t="s">
         <v>55</v>
       </c>
@@ -1947,8 +1950,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="35"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="9" t="s">
         <v>80</v>
       </c>
@@ -1964,8 +1967,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="35"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="9" t="s">
         <v>81</v>
       </c>
@@ -1981,8 +1984,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="9" t="s">
         <v>87</v>
       </c>
@@ -1998,8 +2001,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="35"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="9" t="s">
         <v>59</v>
       </c>
@@ -2015,8 +2018,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="35"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="9" t="s">
         <v>89</v>
       </c>
@@ -2032,8 +2035,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="35"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="9" t="s">
         <v>83</v>
       </c>
@@ -2049,8 +2052,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="35"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="9" t="s">
         <v>90</v>
       </c>
@@ -2066,10 +2069,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="35"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -2083,10 +2086,10 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="35"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2100,27 +2103,27 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="35"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="35"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -2134,10 +2137,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="35"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2151,16 +2154,16 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="35"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13">
@@ -2168,27 +2171,31 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="21"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A76" s="39"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="I76" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="21"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2197,44 +2204,42 @@
     </row>
     <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="21"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="9" t="s">
-        <v>65</v>
+      <c r="B78" s="37"/>
+      <c r="C78" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="21"/>
-      <c r="B79" s="38"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="21"/>
-      <c r="B80" s="38"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="13"/>
@@ -2242,11 +2247,13 @@
     </row>
     <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="21"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2254,18 +2261,12 @@
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="34">
-        <v>6</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A82" s="21"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -2273,10 +2274,14 @@
       <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="35"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="38">
+        <v>6</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>5</v>
+      </c>
       <c r="C83" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2288,12 +2293,14 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="35"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="2"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -2301,42 +2308,40 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="35"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="28" t="s">
-        <v>71</v>
+      <c r="A85" s="39"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="35"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="29" t="s">
-        <v>72</v>
+      <c r="A86" s="39"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="35"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A87" s="39"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2344,58 +2349,63 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="35"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="35"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="36"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="2"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9">
-      <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="I91" s="3"/>
+    <row r="91" spans="1:9" ht="15.75">
+      <c r="A91" s="40"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="C92" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -2403,35 +2413,32 @@
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="B93" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="60">
-      <c r="B94" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="20">
-        <v>1</v>
-      </c>
+    <row r="94" spans="1:9">
+      <c r="B94" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="60">
       <c r="B95" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C95" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2441,45 +2448,58 @@
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="B96" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="20">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" spans="2:3" ht="30">
       <c r="B97" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C97" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="30">
       <c r="B98" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="30">
+      <c r="B99" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="33">
+      <c r="C99" s="33">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A54:A76"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B53"/>
+    <mergeCell ref="B54:B82"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A13:A35"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B35"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="A54:A75"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B53"/>
-    <mergeCell ref="B54:B81"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E31 G2:G13 F2:F55 G17:G18 D24 D2:E23 D33:D52 G20:G46 G48:G53 E32:E56 E57:F57 E61:E67 E58:G59 E60:F60 F63:F64 F61:G62 F65:G67 E68:F68 F69 F73 F71:G72 D54:D80 F77 E69:E79 F74:G76 F89 F90:G93 F78:G86 G87:G88 D81:E87 D89:E93 E88:F88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E31 G2:G13 F2:F55 G17:G18 D24 D2:E23 D33:D52 G20:G46 G48:G53 E32:E56 E57:F57 E61:E67 E58:G59 E60:F60 F63:F64 F61:G62 F65:G67 E68:F68 F69 F74 F71:G73 D54:D81 F78 E69:E80 F75:G77 F90 F91:G94 F79:G87 G88:G89 D82:E88 D90:E94 E89:F89">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/TasksheetFinal.xlsx
+++ b/report/TasksheetFinal.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
   <si>
     <t>No.</t>
   </si>
@@ -414,17 +414,44 @@
     <t>Tran Tan Len</t>
   </si>
   <si>
-    <t>Import Laptop from Excel</t>
-  </si>
-  <si>
-    <t>Import Hardware from Excel</t>
+    <t>Confirm new laptop</t>
+  </si>
+  <si>
+    <t>Confirm new hardware</t>
+  </si>
+  <si>
+    <t>Manage Store</t>
+  </si>
+  <si>
+    <t>Import product excel</t>
+  </si>
+  <si>
+    <t>Import hardware excel</t>
+  </si>
+  <si>
+    <t>Import product from Excel</t>
+  </si>
+  <si>
+    <t>Import hardware from Excel</t>
+  </si>
+  <si>
+    <t>View compare history</t>
+  </si>
+  <si>
+    <t>Compare detail product</t>
+  </si>
+  <si>
+    <t>Manage Hardware</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +523,31 @@
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,6 +722,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,6 +747,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,10 +1099,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="34">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1058,8 +1118,8 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1073,8 +1133,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1088,8 +1148,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1103,8 +1163,8 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1178,8 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1133,10 +1193,10 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="35">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1152,8 +1212,8 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1167,8 +1227,8 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1182,8 +1242,8 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="35"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1197,8 +1257,8 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1212,10 +1272,10 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="35">
+      <c r="A13" s="37">
         <v>3</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
@@ -1227,23 +1287,21 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="30" t="s">
         <v>75</v>
       </c>
@@ -1257,8 +1315,8 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="30" t="s">
         <v>79</v>
       </c>
@@ -1272,8 +1330,8 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="30" t="s">
         <v>76</v>
       </c>
@@ -1285,8 +1343,8 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
@@ -1298,8 +1356,8 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="30" t="s">
         <v>80</v>
       </c>
@@ -1313,8 +1371,8 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="30" t="s">
         <v>81</v>
       </c>
@@ -1328,8 +1386,8 @@
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="30" t="s">
         <v>82</v>
       </c>
@@ -1343,8 +1401,8 @@
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="35"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="30" t="s">
         <v>76</v>
       </c>
@@ -1356,8 +1414,8 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
@@ -1369,8 +1427,8 @@
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="30" t="s">
         <v>59</v>
       </c>
@@ -1383,8 +1441,8 @@
       <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="35"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="30" t="s">
         <v>83</v>
       </c>
@@ -1398,8 +1456,8 @@
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="35"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="30" t="s">
         <v>84</v>
       </c>
@@ -1413,8 +1471,8 @@
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="35"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="30" t="s">
         <v>61</v>
       </c>
@@ -1428,38 +1486,40 @@
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="35"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="30" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="35"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="31" t="s">
-        <v>38</v>
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="35"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="31" t="s">
-        <v>39</v>
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1469,40 +1529,38 @@
       <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="35"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="35"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A32" s="37"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="35"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="7" t="s">
-        <v>40</v>
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1514,25 +1572,25 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="35"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="35"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1543,17 +1601,15 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A36" s="36">
-        <v>4</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="2"/>
+    <row r="36" spans="1:9" ht="15.75">
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1562,9 +1618,9 @@
     </row>
     <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="9" t="s">
-        <v>44</v>
+      <c r="B37" s="39"/>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -1575,26 +1631,28 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="10" t="s">
-        <v>10</v>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A38" s="38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="8" t="s">
-        <v>11</v>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -1606,25 +1664,29 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="9" t="s">
-        <v>45</v>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="2"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1632,9 +1694,11 @@
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="32"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1643,10 +1707,10 @@
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="22"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="24" t="s">
-        <v>12</v>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1656,9 +1720,9 @@
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="22"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1668,9 +1732,9 @@
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="22"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="25" t="s">
-        <v>49</v>
+      <c r="B45" s="39"/>
+      <c r="C45" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1681,71 +1745,67 @@
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="22"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="22"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="22"/>
-      <c r="B48" s="37"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="22"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="22"/>
-      <c r="B50" s="37"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="13"/>
@@ -1753,9 +1813,9 @@
     </row>
     <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="22"/>
-      <c r="B51" s="37"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="25" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1766,9 +1826,9 @@
     </row>
     <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="22"/>
-      <c r="B52" s="37"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1781,9 +1841,9 @@
     </row>
     <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="22"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="29" t="s">
-        <v>54</v>
+      <c r="B53" s="39"/>
+      <c r="C53" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1792,49 +1852,43 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="38">
-        <v>5</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="54" spans="1:9" ht="15.75">
+      <c r="A54" s="22"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="9" t="s">
-        <v>92</v>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="22"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="13">
-        <v>1</v>
-      </c>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A56" s="39"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="40">
+        <v>5</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>16</v>
+      </c>
       <c r="C56" s="9" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
@@ -1847,11 +1901,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="39"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A57" s="41"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="9" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
@@ -1864,34 +1918,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="39"/>
-      <c r="B58" s="37"/>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A58" s="41"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="9" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="39"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13">
@@ -1899,27 +1953,27 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="39"/>
-      <c r="B60" s="37"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="39"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="9" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
@@ -1929,48 +1983,48 @@
       <c r="G61" s="2"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="39"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="39"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="39"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="9" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1980,88 +2034,88 @@
       <c r="G64" s="2"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="39"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="39"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="39"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="39"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="39"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="9" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13">
@@ -2069,10 +2123,10 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="39"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -2082,14 +2136,14 @@
       <c r="G70" s="2"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="39"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2099,14 +2153,14 @@
       <c r="G71" s="2"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="39"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2116,110 +2170,116 @@
       <c r="G72" s="2"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="39"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13">
-        <v>1</v>
+      <c r="A73" s="41"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="44">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="39"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75">
+      <c r="A75" s="41"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="39"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13">
-        <v>1</v>
-      </c>
-    </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="39"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="21"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A77" s="41"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="I77" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="21"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="29" t="s">
-        <v>64</v>
+      <c r="A78" s="41"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+      <c r="I78" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="21"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2228,28 +2288,32 @@
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="I80" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="21"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -2258,88 +2322,98 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="I81" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="21"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="38">
-        <v>6</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>5</v>
-      </c>
+      <c r="A83" s="41"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+      <c r="I83" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="39"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="I84" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="39"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="27" t="s">
-        <v>70</v>
+      <c r="A85" s="41"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
+      <c r="I85" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="39"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A86" s="21"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="39"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="29" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2349,40 +2423,40 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="39"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A88" s="21"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="39"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="28" t="s">
-        <v>91</v>
+      <c r="A89" s="21"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="39"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="28" t="s">
-        <v>74</v>
+      <c r="A90" s="21"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -2394,9 +2468,11 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="40"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="29" t="s">
+        <v>13</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -2404,102 +2480,233 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="C93" s="4" t="s">
+    <row r="92" spans="1:9" ht="15.75">
+      <c r="A92" s="40">
+        <v>6</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75">
+      <c r="A93" s="41"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75">
+      <c r="A94" s="41"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75">
+      <c r="A95" s="41"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75">
+      <c r="A96" s="41"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75">
+      <c r="A97" s="41"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75">
+      <c r="A98" s="41"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75">
+      <c r="A99" s="41"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75">
+      <c r="A100" s="42"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="C101" s="1"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="C102" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="B94" s="18" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="60">
-      <c r="B95" s="19" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" ht="60">
+      <c r="B104" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="20">
+      <c r="C104" s="20">
         <v>1</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="30">
-      <c r="B96" s="19" t="s">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" ht="30">
+      <c r="B105" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="20">
+      <c r="C105" s="20">
         <v>2</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="2:3" ht="30">
-      <c r="B97" s="19" t="s">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="30">
+      <c r="B106" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C106" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="30">
-      <c r="B98" s="19" t="s">
+    <row r="107" spans="1:9" ht="30">
+      <c r="B107" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="20">
+      <c r="C107" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="30">
-      <c r="B99" s="19" t="s">
+    <row r="108" spans="1:9" ht="30">
+      <c r="B108" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="33">
+      <c r="C108" s="33">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="A54:A76"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B53"/>
-    <mergeCell ref="B54:B82"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A56:A85"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B55"/>
+    <mergeCell ref="B56:B91"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A13:A35"/>
+    <mergeCell ref="A13:A37"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B35"/>
+    <mergeCell ref="B12:B37"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E31 G2:G13 F2:F55 G17:G18 D24 D2:E23 D33:D52 G20:G46 G48:G53 E32:E56 E57:F57 E61:E67 E58:G59 E60:F60 F63:F64 F61:G62 F65:G67 E68:F68 F69 F74 F71:G73 D54:D81 F78 E69:E80 F75:G77 F90 F91:G94 F79:G87 G88:G89 D82:E88 D90:E94 E89:F89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E33 G2:G13 F2:F57 G17:G18 D24 D2:E23 D35:D54 G20:G48 G50:G55 E34:E58 E59:F59 E65:E73 E60:G61 E62:F64 F67:F69 F65:G66 F70:G73 E74:F74 F75 F81 F77:G80 D56:D90 F87 E75:E89 F82:G86 F99 F100:G103 F88:G96 G97:G98 D91:E97 D99:E103 E98:F98">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
